--- a/checkData.xlsx
+++ b/checkData.xlsx
@@ -20,16 +20,16 @@
     <t>Nama Tabel</t>
   </si>
   <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>214</t>
+    <t>KOMPUTER_A</t>
+  </si>
+  <si>
+    <t>KOMPUTER_B</t>
   </si>
   <si>
     <t>215</t>
   </si>
   <si>
-    <t>207</t>
+    <t>213</t>
   </si>
   <si>
     <t>absen</t>
